--- a/въезд_выезд/Greenline_въезд_выезд.xlsx
+++ b/въезд_выезд/Greenline_въезд_выезд.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MEGA\Greenline\Greenline_sumo\greenline_OD\въезд_выезд\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF972522-39D4-4C64-9248-DC5630F8AAD1}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{482345FD-72D3-4CF9-94DC-E76D7F55D765}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -103,7 +103,7 @@
     <t>Парковочных мест вокруг квартала (45°) 0,8</t>
   </si>
   <si>
-    <t>Утро</t>
+    <t>Утро Выезд</t>
   </si>
 </sst>
 </file>
@@ -743,7 +743,7 @@
   <dimension ref="A1:AF63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AI40" sqref="AI40"/>
+      <selection activeCell="AB2" sqref="AB2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -999,91 +999,73 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="2"/>
-      <c r="I3" s="11">
-        <f t="shared" ref="I3:I25" si="1">G3*0.5</f>
-        <v>0</v>
-      </c>
-      <c r="J3" s="14">
-        <f t="shared" ref="J3:J59" si="2">G3*0.7</f>
-        <v>0</v>
-      </c>
-      <c r="K3" s="12">
-        <f t="shared" ref="K3:K25" si="3">J3-I3</f>
-        <v>0</v>
-      </c>
-      <c r="L3" s="9">
-        <f t="shared" ref="L3:L25" si="4">E3/12*0.2</f>
-        <v>0</v>
-      </c>
-      <c r="M3" s="10">
-        <f t="shared" ref="M3:M25" si="5">IF((L3-K3/2)&gt;0,L3-K3/2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="N3" s="23">
-        <f t="shared" ref="N3:N25" si="6">K3+M3</f>
-        <v>0</v>
-      </c>
+      <c r="I3" s="11"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="23"/>
       <c r="O3">
         <v>258</v>
       </c>
       <c r="P3" s="3">
-        <f t="shared" ref="P3:P25" si="7">$O3/6</f>
+        <f t="shared" ref="P3:P25" si="1">$O3/6</f>
         <v>43</v>
       </c>
       <c r="Q3" s="3">
-        <f t="shared" ref="Q3:Q25" si="8">$P3*0.8</f>
+        <f t="shared" ref="Q3:Q25" si="2">$P3*0.8</f>
         <v>34.4</v>
       </c>
       <c r="R3" s="3">
-        <f t="shared" ref="R3:R25" si="9">Q3-N3</f>
+        <f t="shared" ref="R3:R25" si="3">Q3-N3</f>
         <v>34.4</v>
       </c>
       <c r="S3" s="3">
-        <f t="shared" ref="S3:S25" si="10">$O3/2.33</f>
+        <f t="shared" ref="S3:S25" si="4">$O3/2.33</f>
         <v>110.72961373390558</v>
       </c>
       <c r="T3" s="3">
-        <f t="shared" ref="T3:T25" si="11">$S3*0.8</f>
+        <f t="shared" ref="T3:T25" si="5">$S3*0.8</f>
         <v>88.58369098712447</v>
       </c>
       <c r="U3" s="3">
-        <f t="shared" ref="U3:U25" si="12">T3-$N3</f>
+        <f t="shared" ref="U3:U25" si="6">T3-$N3</f>
         <v>88.58369098712447</v>
       </c>
       <c r="V3" s="3">
-        <f t="shared" ref="V3:V25" si="13">$O3/2.64</f>
+        <f t="shared" ref="V3:V25" si="7">$O3/2.64</f>
         <v>97.72727272727272</v>
       </c>
       <c r="W3" s="3">
-        <f t="shared" ref="W3:W25" si="14">$V3*0.8</f>
+        <f t="shared" ref="W3:W25" si="8">$V3*0.8</f>
         <v>78.181818181818187</v>
       </c>
       <c r="X3" s="3">
-        <f t="shared" ref="X3:X25" si="15">W3-$N3</f>
+        <f t="shared" ref="X3:X25" si="9">W3-$N3</f>
         <v>78.181818181818187</v>
       </c>
       <c r="Y3" s="3">
-        <f t="shared" ref="Y3:Y25" si="16">$O3/3.26</f>
+        <f t="shared" ref="Y3:Y25" si="10">$O3/3.26</f>
         <v>79.141104294478538</v>
       </c>
       <c r="Z3" s="3">
-        <f t="shared" ref="Z3:Z25" si="17">$Y3*0.8</f>
+        <f t="shared" ref="Z3:Z25" si="11">$Y3*0.8</f>
         <v>63.312883435582833</v>
       </c>
       <c r="AA3" s="3">
-        <f t="shared" ref="AA3" si="18">Z3-$N3</f>
+        <f t="shared" ref="AA3" si="12">Z3-$N3</f>
         <v>63.312883435582833</v>
       </c>
       <c r="AB3" s="3">
-        <f t="shared" ref="AB3:AB59" si="19">J3+L3</f>
+        <f t="shared" ref="AB3:AB59" si="13">J3+L3</f>
         <v>0</v>
       </c>
       <c r="AC3" s="3">
-        <f t="shared" ref="AC3:AC59" si="20">AB3*0.3</f>
+        <f t="shared" ref="AC3:AC59" si="14">AB3*0.3</f>
         <v>0</v>
       </c>
       <c r="AD3" s="3">
-        <f t="shared" ref="AD3:AF46" si="21">$AC3*AD$1</f>
+        <f t="shared" ref="AD3:AF46" si="15">$AC3*AD$1</f>
         <v>0</v>
       </c>
       <c r="AE3" s="3">
@@ -1109,74 +1091,74 @@
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="I3:I25" si="16">G4*0.5</f>
         <v>348</v>
       </c>
       <c r="J4" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="J3:J59" si="17">G4*0.7</f>
         <v>487.2</v>
       </c>
       <c r="K4" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="K3:K25" si="18">J4-I4</f>
         <v>139.19999999999999</v>
       </c>
       <c r="L4" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="L3:L25" si="19">E4/12*0.2</f>
         <v>0</v>
       </c>
       <c r="M4" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="M3:M25" si="20">IF((L4-K4/2)&gt;0,L4-K4/2,0)</f>
         <v>0</v>
       </c>
       <c r="N4" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="N3:N25" si="21">K4+M4</f>
         <v>139.19999999999999</v>
       </c>
       <c r="O4">
         <v>320</v>
       </c>
       <c r="P4" s="3">
+        <f t="shared" si="1"/>
+        <v>53.333333333333336</v>
+      </c>
+      <c r="Q4" s="3">
+        <f t="shared" si="2"/>
+        <v>42.666666666666671</v>
+      </c>
+      <c r="R4" s="3">
+        <f t="shared" si="3"/>
+        <v>-96.533333333333317</v>
+      </c>
+      <c r="S4" s="3">
+        <f t="shared" si="4"/>
+        <v>137.33905579399141</v>
+      </c>
+      <c r="T4" s="3">
+        <f t="shared" si="5"/>
+        <v>109.87124463519314</v>
+      </c>
+      <c r="U4" s="3">
+        <f t="shared" si="6"/>
+        <v>-29.328755364806852</v>
+      </c>
+      <c r="V4" s="3">
         <f t="shared" si="7"/>
-        <v>53.333333333333336</v>
-      </c>
-      <c r="Q4" s="3">
+        <v>121.2121212121212</v>
+      </c>
+      <c r="W4" s="3">
         <f t="shared" si="8"/>
-        <v>42.666666666666671</v>
-      </c>
-      <c r="R4" s="3">
+        <v>96.969696969696969</v>
+      </c>
+      <c r="X4" s="3">
         <f t="shared" si="9"/>
-        <v>-96.533333333333317</v>
-      </c>
-      <c r="S4" s="3">
+        <v>-42.23030303030302</v>
+      </c>
+      <c r="Y4" s="3">
         <f t="shared" si="10"/>
-        <v>137.33905579399141</v>
-      </c>
-      <c r="T4" s="3">
+        <v>98.159509202453989</v>
+      </c>
+      <c r="Z4" s="3">
         <f t="shared" si="11"/>
-        <v>109.87124463519314</v>
-      </c>
-      <c r="U4" s="3">
-        <f t="shared" si="12"/>
-        <v>-29.328755364806852</v>
-      </c>
-      <c r="V4" s="3">
-        <f t="shared" si="13"/>
-        <v>121.2121212121212</v>
-      </c>
-      <c r="W4" s="3">
-        <f t="shared" si="14"/>
-        <v>96.969696969696969</v>
-      </c>
-      <c r="X4" s="3">
-        <f t="shared" si="15"/>
-        <v>-42.23030303030302</v>
-      </c>
-      <c r="Y4" s="3">
-        <f t="shared" si="16"/>
-        <v>98.159509202453989</v>
-      </c>
-      <c r="Z4" s="3">
-        <f t="shared" si="17"/>
         <v>78.527607361963192</v>
       </c>
       <c r="AA4" s="3">
@@ -1184,15 +1166,15 @@
         <v>-60.672392638036797</v>
       </c>
       <c r="AB4" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>487.2</v>
       </c>
       <c r="AC4" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>146.16</v>
       </c>
       <c r="AD4" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>21.923999999999999</v>
       </c>
       <c r="AE4" s="3">
@@ -1219,7 +1201,7 @@
         <v>15113</v>
       </c>
       <c r="E5" s="6">
-        <f t="shared" ref="E3:E25" si="23">D5-(I5*2.5*5/0.35)</f>
+        <f t="shared" ref="E5:E25" si="23">D5-(I5*2.5*5/0.35)</f>
         <v>6970.1428571428569</v>
       </c>
       <c r="F5" s="1"/>
@@ -1231,74 +1213,74 @@
         <v>2.8382666666666667</v>
       </c>
       <c r="I5" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="16"/>
         <v>228</v>
       </c>
       <c r="J5" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="17"/>
         <v>319.2</v>
       </c>
       <c r="K5" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="18"/>
         <v>91.199999999999989</v>
       </c>
       <c r="L5" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>116.16904761904762</v>
       </c>
       <c r="M5" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>70.569047619047623</v>
       </c>
       <c r="N5" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="21"/>
         <v>161.76904761904763</v>
       </c>
       <c r="O5">
         <v>452</v>
       </c>
       <c r="P5" s="3">
+        <f t="shared" si="1"/>
+        <v>75.333333333333329</v>
+      </c>
+      <c r="Q5" s="3">
+        <f t="shared" si="2"/>
+        <v>60.266666666666666</v>
+      </c>
+      <c r="R5" s="3">
+        <f t="shared" si="3"/>
+        <v>-101.50238095238096</v>
+      </c>
+      <c r="S5" s="3">
+        <f t="shared" si="4"/>
+        <v>193.99141630901286</v>
+      </c>
+      <c r="T5" s="3">
+        <f t="shared" si="5"/>
+        <v>155.1931330472103</v>
+      </c>
+      <c r="U5" s="3">
+        <f t="shared" si="6"/>
+        <v>-6.5759145718373304</v>
+      </c>
+      <c r="V5" s="3">
         <f t="shared" si="7"/>
-        <v>75.333333333333329</v>
-      </c>
-      <c r="Q5" s="3">
+        <v>171.21212121212122</v>
+      </c>
+      <c r="W5" s="3">
         <f t="shared" si="8"/>
-        <v>60.266666666666666</v>
-      </c>
-      <c r="R5" s="3">
+        <v>136.96969696969697</v>
+      </c>
+      <c r="X5" s="3">
         <f t="shared" si="9"/>
-        <v>-101.50238095238096</v>
-      </c>
-      <c r="S5" s="3">
+        <v>-24.799350649350657</v>
+      </c>
+      <c r="Y5" s="3">
         <f t="shared" si="10"/>
-        <v>193.99141630901286</v>
-      </c>
-      <c r="T5" s="3">
+        <v>138.65030674846628</v>
+      </c>
+      <c r="Z5" s="3">
         <f t="shared" si="11"/>
-        <v>155.1931330472103</v>
-      </c>
-      <c r="U5" s="3">
-        <f t="shared" si="12"/>
-        <v>-6.5759145718373304</v>
-      </c>
-      <c r="V5" s="3">
-        <f t="shared" si="13"/>
-        <v>171.21212121212122</v>
-      </c>
-      <c r="W5" s="3">
-        <f t="shared" si="14"/>
-        <v>136.96969696969697</v>
-      </c>
-      <c r="X5" s="3">
-        <f t="shared" si="15"/>
-        <v>-24.799350649350657</v>
-      </c>
-      <c r="Y5" s="3">
-        <f t="shared" si="16"/>
-        <v>138.65030674846628</v>
-      </c>
-      <c r="Z5" s="3">
-        <f t="shared" si="17"/>
         <v>110.92024539877303</v>
       </c>
       <c r="AA5" s="3">
@@ -1306,15 +1288,15 @@
         <v>-50.848802220274592</v>
       </c>
       <c r="AB5" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>435.36904761904759</v>
       </c>
       <c r="AC5" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>130.61071428571427</v>
       </c>
       <c r="AD5" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>19.591607142857139</v>
       </c>
       <c r="AE5" s="3">
@@ -1353,74 +1335,74 @@
         <v>3.2168759124087587</v>
       </c>
       <c r="I6" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="16"/>
         <v>189</v>
       </c>
       <c r="J6" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="17"/>
         <v>264.59999999999997</v>
       </c>
       <c r="K6" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="18"/>
         <v>75.599999999999966</v>
       </c>
       <c r="L6" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>72.05</v>
       </c>
       <c r="M6" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>34.250000000000014</v>
       </c>
       <c r="N6" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="21"/>
         <v>109.84999999999998</v>
       </c>
       <c r="O6">
         <v>484</v>
       </c>
       <c r="P6" s="3">
+        <f t="shared" si="1"/>
+        <v>80.666666666666671</v>
+      </c>
+      <c r="Q6" s="3">
+        <f t="shared" si="2"/>
+        <v>64.533333333333346</v>
+      </c>
+      <c r="R6" s="3">
+        <f t="shared" si="3"/>
+        <v>-45.316666666666634</v>
+      </c>
+      <c r="S6" s="3">
+        <f t="shared" si="4"/>
+        <v>207.725321888412</v>
+      </c>
+      <c r="T6" s="3">
+        <f t="shared" si="5"/>
+        <v>166.1802575107296</v>
+      </c>
+      <c r="U6" s="3">
+        <f t="shared" si="6"/>
+        <v>56.330257510729624</v>
+      </c>
+      <c r="V6" s="3">
         <f t="shared" si="7"/>
-        <v>80.666666666666671</v>
-      </c>
-      <c r="Q6" s="3">
+        <v>183.33333333333331</v>
+      </c>
+      <c r="W6" s="3">
         <f t="shared" si="8"/>
-        <v>64.533333333333346</v>
-      </c>
-      <c r="R6" s="3">
+        <v>146.66666666666666</v>
+      </c>
+      <c r="X6" s="3">
         <f t="shared" si="9"/>
-        <v>-45.316666666666634</v>
-      </c>
-      <c r="S6" s="3">
+        <v>36.816666666666677</v>
+      </c>
+      <c r="Y6" s="3">
         <f t="shared" si="10"/>
-        <v>207.725321888412</v>
-      </c>
-      <c r="T6" s="3">
+        <v>148.46625766871168</v>
+      </c>
+      <c r="Z6" s="3">
         <f t="shared" si="11"/>
-        <v>166.1802575107296</v>
-      </c>
-      <c r="U6" s="3">
-        <f t="shared" si="12"/>
-        <v>56.330257510729624</v>
-      </c>
-      <c r="V6" s="3">
-        <f t="shared" si="13"/>
-        <v>183.33333333333331</v>
-      </c>
-      <c r="W6" s="3">
-        <f t="shared" si="14"/>
-        <v>146.66666666666666</v>
-      </c>
-      <c r="X6" s="3">
-        <f t="shared" si="15"/>
-        <v>36.816666666666677</v>
-      </c>
-      <c r="Y6" s="3">
-        <f t="shared" si="16"/>
-        <v>148.46625766871168</v>
-      </c>
-      <c r="Z6" s="3">
-        <f t="shared" si="17"/>
         <v>118.77300613496935</v>
       </c>
       <c r="AA6" s="3">
@@ -1428,15 +1410,15 @@
         <v>8.9230061349693699</v>
       </c>
       <c r="AB6" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>336.65</v>
       </c>
       <c r="AC6" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>100.99499999999999</v>
       </c>
       <c r="AD6" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>15.149249999999999</v>
       </c>
       <c r="AE6" s="3">
@@ -1476,62 +1458,62 @@
       <c r="J7" s="14"/>
       <c r="K7" s="12"/>
       <c r="L7" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>140.20000000000002</v>
       </c>
       <c r="M7" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>140.20000000000002</v>
       </c>
       <c r="N7" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="21"/>
         <v>140.20000000000002</v>
       </c>
       <c r="O7">
         <v>447</v>
       </c>
       <c r="P7" s="3">
+        <f t="shared" si="1"/>
+        <v>74.5</v>
+      </c>
+      <c r="Q7" s="3">
+        <f t="shared" si="2"/>
+        <v>59.6</v>
+      </c>
+      <c r="R7" s="3">
+        <f t="shared" si="3"/>
+        <v>-80.600000000000023</v>
+      </c>
+      <c r="S7" s="3">
+        <f t="shared" si="4"/>
+        <v>191.84549356223175</v>
+      </c>
+      <c r="T7" s="3">
+        <f t="shared" si="5"/>
+        <v>153.47639484978541</v>
+      </c>
+      <c r="U7" s="3">
+        <f t="shared" si="6"/>
+        <v>13.27639484978539</v>
+      </c>
+      <c r="V7" s="3">
         <f t="shared" si="7"/>
-        <v>74.5</v>
-      </c>
-      <c r="Q7" s="3">
+        <v>169.31818181818181</v>
+      </c>
+      <c r="W7" s="3">
         <f t="shared" si="8"/>
-        <v>59.6</v>
-      </c>
-      <c r="R7" s="3">
+        <v>135.45454545454547</v>
+      </c>
+      <c r="X7" s="3">
         <f t="shared" si="9"/>
-        <v>-80.600000000000023</v>
-      </c>
-      <c r="S7" s="3">
+        <v>-4.7454545454545496</v>
+      </c>
+      <c r="Y7" s="3">
         <f t="shared" si="10"/>
-        <v>191.84549356223175</v>
-      </c>
-      <c r="T7" s="3">
+        <v>137.11656441717793</v>
+      </c>
+      <c r="Z7" s="3">
         <f t="shared" si="11"/>
-        <v>153.47639484978541</v>
-      </c>
-      <c r="U7" s="3">
-        <f t="shared" si="12"/>
-        <v>13.27639484978539</v>
-      </c>
-      <c r="V7" s="3">
-        <f t="shared" si="13"/>
-        <v>169.31818181818181</v>
-      </c>
-      <c r="W7" s="3">
-        <f t="shared" si="14"/>
-        <v>135.45454545454547</v>
-      </c>
-      <c r="X7" s="3">
-        <f t="shared" si="15"/>
-        <v>-4.7454545454545496</v>
-      </c>
-      <c r="Y7" s="3">
-        <f t="shared" si="16"/>
-        <v>137.11656441717793</v>
-      </c>
-      <c r="Z7" s="3">
-        <f t="shared" si="17"/>
         <v>109.69325153374234</v>
       </c>
       <c r="AA7" s="3">
@@ -1539,15 +1521,15 @@
         <v>-30.506748466257676</v>
       </c>
       <c r="AB7" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>140.20000000000002</v>
       </c>
       <c r="AC7" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>42.06</v>
       </c>
       <c r="AD7" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>6.3090000000000002</v>
       </c>
       <c r="AE7" s="3">
@@ -1586,74 +1568,74 @@
         <v>3.4095723384895358</v>
       </c>
       <c r="I8" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="16"/>
         <v>129.5</v>
       </c>
       <c r="J8" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="17"/>
         <v>181.29999999999998</v>
       </c>
       <c r="K8" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="18"/>
         <v>51.799999999999983</v>
       </c>
       <c r="L8" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>65.7</v>
       </c>
       <c r="M8" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>39.800000000000011</v>
       </c>
       <c r="N8" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="21"/>
         <v>91.6</v>
       </c>
       <c r="O8">
         <v>347</v>
       </c>
       <c r="P8" s="3">
+        <f t="shared" si="1"/>
+        <v>57.833333333333336</v>
+      </c>
+      <c r="Q8" s="3">
+        <f t="shared" si="2"/>
+        <v>46.266666666666673</v>
+      </c>
+      <c r="R8" s="3">
+        <f t="shared" si="3"/>
+        <v>-45.333333333333321</v>
+      </c>
+      <c r="S8" s="3">
+        <f t="shared" si="4"/>
+        <v>148.92703862660943</v>
+      </c>
+      <c r="T8" s="3">
+        <f t="shared" si="5"/>
+        <v>119.14163090128756</v>
+      </c>
+      <c r="U8" s="3">
+        <f t="shared" si="6"/>
+        <v>27.541630901287562</v>
+      </c>
+      <c r="V8" s="3">
         <f t="shared" si="7"/>
-        <v>57.833333333333336</v>
-      </c>
-      <c r="Q8" s="3">
+        <v>131.43939393939394</v>
+      </c>
+      <c r="W8" s="3">
         <f t="shared" si="8"/>
-        <v>46.266666666666673</v>
-      </c>
-      <c r="R8" s="3">
+        <v>105.15151515151516</v>
+      </c>
+      <c r="X8" s="3">
         <f t="shared" si="9"/>
-        <v>-45.333333333333321</v>
-      </c>
-      <c r="S8" s="3">
+        <v>13.551515151515162</v>
+      </c>
+      <c r="Y8" s="3">
         <f t="shared" si="10"/>
-        <v>148.92703862660943</v>
-      </c>
-      <c r="T8" s="3">
+        <v>106.44171779141105</v>
+      </c>
+      <c r="Z8" s="3">
         <f t="shared" si="11"/>
-        <v>119.14163090128756</v>
-      </c>
-      <c r="U8" s="3">
-        <f t="shared" si="12"/>
-        <v>27.541630901287562</v>
-      </c>
-      <c r="V8" s="3">
-        <f t="shared" si="13"/>
-        <v>131.43939393939394</v>
-      </c>
-      <c r="W8" s="3">
-        <f t="shared" si="14"/>
-        <v>105.15151515151516</v>
-      </c>
-      <c r="X8" s="3">
-        <f t="shared" si="15"/>
-        <v>13.551515151515162</v>
-      </c>
-      <c r="Y8" s="3">
-        <f t="shared" si="16"/>
-        <v>106.44171779141105</v>
-      </c>
-      <c r="Z8" s="3">
-        <f t="shared" si="17"/>
         <v>85.153374233128844</v>
       </c>
       <c r="AA8" s="3">
@@ -1661,15 +1643,15 @@
         <v>-6.4466257668711506</v>
       </c>
       <c r="AB8" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>247</v>
       </c>
       <c r="AC8" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>74.099999999999994</v>
       </c>
       <c r="AD8" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>11.114999999999998</v>
       </c>
       <c r="AE8" s="3">
@@ -1708,74 +1690,74 @@
         <v>2.2868517548454688</v>
       </c>
       <c r="I9" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="16"/>
         <v>190.5</v>
       </c>
       <c r="J9" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="17"/>
         <v>266.7</v>
       </c>
       <c r="K9" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="18"/>
         <v>76.199999999999989</v>
       </c>
       <c r="L9" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>149.94047619047618</v>
       </c>
       <c r="M9" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>111.84047619047618</v>
       </c>
       <c r="N9" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="21"/>
         <v>188.04047619047617</v>
       </c>
       <c r="O9">
         <v>427</v>
       </c>
       <c r="P9" s="3">
+        <f t="shared" si="1"/>
+        <v>71.166666666666671</v>
+      </c>
+      <c r="Q9" s="3">
+        <f t="shared" si="2"/>
+        <v>56.933333333333337</v>
+      </c>
+      <c r="R9" s="3">
+        <f t="shared" si="3"/>
+        <v>-131.10714285714283</v>
+      </c>
+      <c r="S9" s="3">
+        <f t="shared" si="4"/>
+        <v>183.26180257510728</v>
+      </c>
+      <c r="T9" s="3">
+        <f t="shared" si="5"/>
+        <v>146.60944206008583</v>
+      </c>
+      <c r="U9" s="3">
+        <f t="shared" si="6"/>
+        <v>-41.431034130390344</v>
+      </c>
+      <c r="V9" s="3">
         <f t="shared" si="7"/>
-        <v>71.166666666666671</v>
-      </c>
-      <c r="Q9" s="3">
+        <v>161.74242424242422</v>
+      </c>
+      <c r="W9" s="3">
         <f t="shared" si="8"/>
-        <v>56.933333333333337</v>
-      </c>
-      <c r="R9" s="3">
+        <v>129.39393939393938</v>
+      </c>
+      <c r="X9" s="3">
         <f t="shared" si="9"/>
-        <v>-131.10714285714283</v>
-      </c>
-      <c r="S9" s="3">
+        <v>-58.646536796536793</v>
+      </c>
+      <c r="Y9" s="3">
         <f t="shared" si="10"/>
-        <v>183.26180257510728</v>
-      </c>
-      <c r="T9" s="3">
+        <v>130.98159509202455</v>
+      </c>
+      <c r="Z9" s="3">
         <f t="shared" si="11"/>
-        <v>146.60944206008583</v>
-      </c>
-      <c r="U9" s="3">
-        <f t="shared" si="12"/>
-        <v>-41.431034130390344</v>
-      </c>
-      <c r="V9" s="3">
-        <f t="shared" si="13"/>
-        <v>161.74242424242422</v>
-      </c>
-      <c r="W9" s="3">
-        <f t="shared" si="14"/>
-        <v>129.39393939393938</v>
-      </c>
-      <c r="X9" s="3">
-        <f t="shared" si="15"/>
-        <v>-58.646536796536793</v>
-      </c>
-      <c r="Y9" s="3">
-        <f t="shared" si="16"/>
-        <v>130.98159509202455</v>
-      </c>
-      <c r="Z9" s="3">
-        <f t="shared" si="17"/>
         <v>104.78527607361964</v>
       </c>
       <c r="AA9" s="3">
@@ -1783,15 +1765,15 @@
         <v>-83.255200116856528</v>
       </c>
       <c r="AB9" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>416.64047619047619</v>
       </c>
       <c r="AC9" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>124.99214285714285</v>
       </c>
       <c r="AD9" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>18.748821428571429</v>
       </c>
       <c r="AE9" s="3">
@@ -1830,74 +1812,74 @@
         <v>2.2203423967774425</v>
       </c>
       <c r="I10" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="16"/>
         <v>36</v>
       </c>
       <c r="J10" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="17"/>
         <v>50.4</v>
       </c>
       <c r="K10" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="18"/>
         <v>14.399999999999999</v>
       </c>
       <c r="L10" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>16.271428571428569</v>
       </c>
       <c r="M10" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>9.0714285714285694</v>
       </c>
       <c r="N10" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="21"/>
         <v>23.471428571428568</v>
       </c>
       <c r="O10">
         <v>150</v>
       </c>
       <c r="P10" s="3">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="Q10" s="3">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="R10" s="3">
+        <f t="shared" si="3"/>
+        <v>-3.471428571428568</v>
+      </c>
+      <c r="S10" s="3">
+        <f t="shared" si="4"/>
+        <v>64.377682403433468</v>
+      </c>
+      <c r="T10" s="3">
+        <f t="shared" si="5"/>
+        <v>51.502145922746777</v>
+      </c>
+      <c r="U10" s="3">
+        <f t="shared" si="6"/>
+        <v>28.030717351318209</v>
+      </c>
+      <c r="V10" s="3">
         <f t="shared" si="7"/>
-        <v>25</v>
-      </c>
-      <c r="Q10" s="3">
+        <v>56.818181818181813</v>
+      </c>
+      <c r="W10" s="3">
         <f t="shared" si="8"/>
-        <v>20</v>
-      </c>
-      <c r="R10" s="3">
+        <v>45.454545454545453</v>
+      </c>
+      <c r="X10" s="3">
         <f t="shared" si="9"/>
-        <v>-3.471428571428568</v>
-      </c>
-      <c r="S10" s="3">
+        <v>21.983116883116885</v>
+      </c>
+      <c r="Y10" s="3">
         <f t="shared" si="10"/>
-        <v>64.377682403433468</v>
-      </c>
-      <c r="T10" s="3">
+        <v>46.012269938650313</v>
+      </c>
+      <c r="Z10" s="3">
         <f t="shared" si="11"/>
-        <v>51.502145922746777</v>
-      </c>
-      <c r="U10" s="3">
-        <f t="shared" si="12"/>
-        <v>28.030717351318209</v>
-      </c>
-      <c r="V10" s="3">
-        <f t="shared" si="13"/>
-        <v>56.818181818181813</v>
-      </c>
-      <c r="W10" s="3">
-        <f t="shared" si="14"/>
-        <v>45.454545454545453</v>
-      </c>
-      <c r="X10" s="3">
-        <f t="shared" si="15"/>
-        <v>21.983116883116885</v>
-      </c>
-      <c r="Y10" s="3">
-        <f t="shared" si="16"/>
-        <v>46.012269938650313</v>
-      </c>
-      <c r="Z10" s="3">
-        <f t="shared" si="17"/>
         <v>36.809815950920253</v>
       </c>
       <c r="AA10" s="3">
@@ -1905,15 +1887,15 @@
         <v>13.338387379491685</v>
       </c>
       <c r="AB10" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>66.671428571428564</v>
       </c>
       <c r="AC10" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>20.001428571428569</v>
       </c>
       <c r="AD10" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>3.0002142857142853</v>
       </c>
       <c r="AE10" s="3">
@@ -1952,27 +1934,27 @@
         <v>2.5423172905525848</v>
       </c>
       <c r="I11" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="16"/>
         <v>110.5</v>
       </c>
       <c r="J11" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="17"/>
         <v>154.69999999999999</v>
       </c>
       <c r="K11" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="18"/>
         <v>44.199999999999989</v>
       </c>
       <c r="L11" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>86.726190476190482</v>
       </c>
       <c r="M11" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>64.626190476190487</v>
       </c>
       <c r="N11" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="21"/>
         <v>108.82619047619048</v>
       </c>
       <c r="O11">
@@ -1980,47 +1962,47 @@
         <v>167</v>
       </c>
       <c r="P11" s="3">
+        <f t="shared" si="1"/>
+        <v>27.833333333333332</v>
+      </c>
+      <c r="Q11" s="3">
+        <f t="shared" si="2"/>
+        <v>22.266666666666666</v>
+      </c>
+      <c r="R11" s="3">
+        <f t="shared" si="3"/>
+        <v>-86.55952380952381</v>
+      </c>
+      <c r="S11" s="3">
+        <f t="shared" si="4"/>
+        <v>71.673819742489272</v>
+      </c>
+      <c r="T11" s="3">
+        <f t="shared" si="5"/>
+        <v>57.33905579399142</v>
+      </c>
+      <c r="U11" s="3">
+        <f t="shared" si="6"/>
+        <v>-51.487134682199056</v>
+      </c>
+      <c r="V11" s="3">
         <f t="shared" si="7"/>
-        <v>27.833333333333332</v>
-      </c>
-      <c r="Q11" s="3">
+        <v>63.257575757575758</v>
+      </c>
+      <c r="W11" s="3">
         <f t="shared" si="8"/>
-        <v>22.266666666666666</v>
-      </c>
-      <c r="R11" s="3">
+        <v>50.606060606060609</v>
+      </c>
+      <c r="X11" s="3">
         <f t="shared" si="9"/>
-        <v>-86.55952380952381</v>
-      </c>
-      <c r="S11" s="3">
+        <v>-58.220129870129867</v>
+      </c>
+      <c r="Y11" s="3">
         <f t="shared" si="10"/>
-        <v>71.673819742489272</v>
-      </c>
-      <c r="T11" s="3">
+        <v>51.226993865030678</v>
+      </c>
+      <c r="Z11" s="3">
         <f t="shared" si="11"/>
-        <v>57.33905579399142</v>
-      </c>
-      <c r="U11" s="3">
-        <f t="shared" si="12"/>
-        <v>-51.487134682199056</v>
-      </c>
-      <c r="V11" s="3">
-        <f t="shared" si="13"/>
-        <v>63.257575757575758</v>
-      </c>
-      <c r="W11" s="3">
-        <f t="shared" si="14"/>
-        <v>50.606060606060609</v>
-      </c>
-      <c r="X11" s="3">
-        <f t="shared" si="15"/>
-        <v>-58.220129870129867</v>
-      </c>
-      <c r="Y11" s="3">
-        <f t="shared" si="16"/>
-        <v>51.226993865030678</v>
-      </c>
-      <c r="Z11" s="3">
-        <f t="shared" si="17"/>
         <v>40.981595092024548</v>
       </c>
       <c r="AA11" s="3">
@@ -2028,15 +2010,15 @@
         <v>-67.844595384165927</v>
       </c>
       <c r="AB11" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>241.42619047619047</v>
       </c>
       <c r="AC11" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>72.427857142857135</v>
       </c>
       <c r="AD11" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>10.864178571428569</v>
       </c>
       <c r="AE11" s="3">
@@ -2069,47 +2051,47 @@
         <v>323</v>
       </c>
       <c r="P12" s="34">
+        <f t="shared" si="1"/>
+        <v>53.833333333333336</v>
+      </c>
+      <c r="Q12" s="34">
+        <f t="shared" si="2"/>
+        <v>43.06666666666667</v>
+      </c>
+      <c r="R12" s="34">
+        <f t="shared" si="3"/>
+        <v>43.06666666666667</v>
+      </c>
+      <c r="S12" s="34">
+        <f t="shared" si="4"/>
+        <v>138.62660944206007</v>
+      </c>
+      <c r="T12" s="34">
+        <f t="shared" si="5"/>
+        <v>110.90128755364806</v>
+      </c>
+      <c r="U12" s="34">
+        <f t="shared" si="6"/>
+        <v>110.90128755364806</v>
+      </c>
+      <c r="V12" s="34">
         <f t="shared" si="7"/>
-        <v>53.833333333333336</v>
-      </c>
-      <c r="Q12" s="34">
+        <v>122.34848484848484</v>
+      </c>
+      <c r="W12" s="34">
         <f t="shared" si="8"/>
-        <v>43.06666666666667</v>
-      </c>
-      <c r="R12" s="34">
+        <v>97.878787878787875</v>
+      </c>
+      <c r="X12" s="34">
         <f t="shared" si="9"/>
-        <v>43.06666666666667</v>
-      </c>
-      <c r="S12" s="34">
+        <v>97.878787878787875</v>
+      </c>
+      <c r="Y12" s="34">
         <f t="shared" si="10"/>
-        <v>138.62660944206007</v>
-      </c>
-      <c r="T12" s="34">
+        <v>99.079754601226995</v>
+      </c>
+      <c r="Z12" s="34">
         <f t="shared" si="11"/>
-        <v>110.90128755364806</v>
-      </c>
-      <c r="U12" s="34">
-        <f t="shared" si="12"/>
-        <v>110.90128755364806</v>
-      </c>
-      <c r="V12" s="34">
-        <f t="shared" si="13"/>
-        <v>122.34848484848484</v>
-      </c>
-      <c r="W12" s="34">
-        <f t="shared" si="14"/>
-        <v>97.878787878787875</v>
-      </c>
-      <c r="X12" s="34">
-        <f t="shared" si="15"/>
-        <v>97.878787878787875</v>
-      </c>
-      <c r="Y12" s="34">
-        <f t="shared" si="16"/>
-        <v>99.079754601226995</v>
-      </c>
-      <c r="Z12" s="34">
-        <f t="shared" si="17"/>
         <v>79.263803680981596</v>
       </c>
       <c r="AA12" s="34">
@@ -2117,15 +2099,15 @@
         <v>79.263803680981596</v>
       </c>
       <c r="AB12" s="34">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AC12" s="34">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AD12" s="34">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AE12" s="34">
@@ -2164,74 +2146,74 @@
         <v>2.9834492038573677</v>
       </c>
       <c r="I13" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="16"/>
         <v>243</v>
       </c>
       <c r="J13" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="17"/>
         <v>340.2</v>
       </c>
       <c r="K13" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="18"/>
         <v>97.199999999999989</v>
       </c>
       <c r="L13" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>34.523809523809511</v>
       </c>
       <c r="M13" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="N13" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="21"/>
         <v>97.199999999999989</v>
       </c>
       <c r="O13">
         <v>502</v>
       </c>
       <c r="P13" s="3">
+        <f t="shared" si="1"/>
+        <v>83.666666666666671</v>
+      </c>
+      <c r="Q13" s="3">
+        <f t="shared" si="2"/>
+        <v>66.933333333333337</v>
+      </c>
+      <c r="R13" s="3">
+        <f t="shared" si="3"/>
+        <v>-30.266666666666652</v>
+      </c>
+      <c r="S13" s="3">
+        <f t="shared" si="4"/>
+        <v>215.45064377682402</v>
+      </c>
+      <c r="T13" s="3">
+        <f t="shared" si="5"/>
+        <v>172.36051502145924</v>
+      </c>
+      <c r="U13" s="3">
+        <f t="shared" si="6"/>
+        <v>75.160515021459247</v>
+      </c>
+      <c r="V13" s="3">
         <f t="shared" si="7"/>
-        <v>83.666666666666671</v>
-      </c>
-      <c r="Q13" s="3">
+        <v>190.15151515151516</v>
+      </c>
+      <c r="W13" s="3">
         <f t="shared" si="8"/>
-        <v>66.933333333333337</v>
-      </c>
-      <c r="R13" s="3">
+        <v>152.12121212121212</v>
+      </c>
+      <c r="X13" s="3">
         <f t="shared" si="9"/>
-        <v>-30.266666666666652</v>
-      </c>
-      <c r="S13" s="3">
+        <v>54.921212121212136</v>
+      </c>
+      <c r="Y13" s="3">
         <f t="shared" si="10"/>
-        <v>215.45064377682402</v>
-      </c>
-      <c r="T13" s="3">
+        <v>153.98773006134971</v>
+      </c>
+      <c r="Z13" s="3">
         <f t="shared" si="11"/>
-        <v>172.36051502145924</v>
-      </c>
-      <c r="U13" s="3">
-        <f t="shared" si="12"/>
-        <v>75.160515021459247</v>
-      </c>
-      <c r="V13" s="3">
-        <f t="shared" si="13"/>
-        <v>190.15151515151516</v>
-      </c>
-      <c r="W13" s="3">
-        <f t="shared" si="14"/>
-        <v>152.12121212121212</v>
-      </c>
-      <c r="X13" s="3">
-        <f t="shared" si="15"/>
-        <v>54.921212121212136</v>
-      </c>
-      <c r="Y13" s="3">
-        <f t="shared" si="16"/>
-        <v>153.98773006134971</v>
-      </c>
-      <c r="Z13" s="3">
-        <f t="shared" si="17"/>
         <v>123.19018404907978</v>
       </c>
       <c r="AA13" s="3">
@@ -2239,15 +2221,15 @@
         <v>25.990184049079787</v>
       </c>
       <c r="AB13" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>374.72380952380951</v>
       </c>
       <c r="AC13" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>112.41714285714285</v>
       </c>
       <c r="AD13" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>16.862571428571428</v>
       </c>
       <c r="AE13" s="3">
@@ -2286,74 +2268,74 @@
         <v>3.4690978479804939</v>
       </c>
       <c r="I14" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="16"/>
         <v>165</v>
       </c>
       <c r="J14" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="17"/>
         <v>230.99999999999997</v>
       </c>
       <c r="K14" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="18"/>
         <v>65.999999999999972</v>
       </c>
       <c r="L14" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>31.335714285714285</v>
       </c>
       <c r="M14" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="N14" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="21"/>
         <v>65.999999999999972</v>
       </c>
       <c r="O14">
         <v>375</v>
       </c>
       <c r="P14" s="3">
+        <f t="shared" si="1"/>
+        <v>62.5</v>
+      </c>
+      <c r="Q14" s="3">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="R14" s="3">
+        <f t="shared" si="3"/>
+        <v>-15.999999999999972</v>
+      </c>
+      <c r="S14" s="3">
+        <f t="shared" si="4"/>
+        <v>160.94420600858368</v>
+      </c>
+      <c r="T14" s="3">
+        <f t="shared" si="5"/>
+        <v>128.75536480686694</v>
+      </c>
+      <c r="U14" s="3">
+        <f t="shared" si="6"/>
+        <v>62.755364806866964</v>
+      </c>
+      <c r="V14" s="3">
         <f t="shared" si="7"/>
-        <v>62.5</v>
-      </c>
-      <c r="Q14" s="3">
+        <v>142.04545454545453</v>
+      </c>
+      <c r="W14" s="3">
         <f t="shared" si="8"/>
-        <v>50</v>
-      </c>
-      <c r="R14" s="3">
+        <v>113.63636363636363</v>
+      </c>
+      <c r="X14" s="3">
         <f t="shared" si="9"/>
-        <v>-15.999999999999972</v>
-      </c>
-      <c r="S14" s="3">
+        <v>47.636363636363654</v>
+      </c>
+      <c r="Y14" s="3">
         <f t="shared" si="10"/>
-        <v>160.94420600858368</v>
-      </c>
-      <c r="T14" s="3">
+        <v>115.03067484662577</v>
+      </c>
+      <c r="Z14" s="3">
         <f t="shared" si="11"/>
-        <v>128.75536480686694</v>
-      </c>
-      <c r="U14" s="3">
-        <f t="shared" si="12"/>
-        <v>62.755364806866964</v>
-      </c>
-      <c r="V14" s="3">
-        <f t="shared" si="13"/>
-        <v>142.04545454545453</v>
-      </c>
-      <c r="W14" s="3">
-        <f t="shared" si="14"/>
-        <v>113.63636363636363</v>
-      </c>
-      <c r="X14" s="3">
-        <f t="shared" si="15"/>
-        <v>47.636363636363654</v>
-      </c>
-      <c r="Y14" s="3">
-        <f t="shared" si="16"/>
-        <v>115.03067484662577</v>
-      </c>
-      <c r="Z14" s="3">
-        <f t="shared" si="17"/>
         <v>92.024539877300626</v>
       </c>
       <c r="AA14" s="3">
@@ -2361,15 +2343,15 @@
         <v>26.024539877300654</v>
       </c>
       <c r="AB14" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>262.33571428571423</v>
       </c>
       <c r="AC14" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>78.70071428571427</v>
       </c>
       <c r="AD14" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>11.805107142857141</v>
       </c>
       <c r="AE14" s="3">
@@ -2408,74 +2390,74 @@
         <v>3.6401486988847584</v>
       </c>
       <c r="I15" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="16"/>
         <v>192</v>
       </c>
       <c r="J15" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="17"/>
         <v>268.79999999999995</v>
       </c>
       <c r="K15" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="18"/>
         <v>76.799999999999955</v>
       </c>
       <c r="L15" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>24.464285714285705</v>
       </c>
       <c r="M15" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="N15" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="21"/>
         <v>76.799999999999955</v>
       </c>
       <c r="O15">
         <v>387</v>
       </c>
       <c r="P15" s="3">
+        <f t="shared" si="1"/>
+        <v>64.5</v>
+      </c>
+      <c r="Q15" s="3">
+        <f t="shared" si="2"/>
+        <v>51.6</v>
+      </c>
+      <c r="R15" s="3">
+        <f t="shared" si="3"/>
+        <v>-25.199999999999953</v>
+      </c>
+      <c r="S15" s="3">
+        <f t="shared" si="4"/>
+        <v>166.09442060085837</v>
+      </c>
+      <c r="T15" s="3">
+        <f t="shared" si="5"/>
+        <v>132.87553648068669</v>
+      </c>
+      <c r="U15" s="3">
+        <f t="shared" si="6"/>
+        <v>56.075536480686736</v>
+      </c>
+      <c r="V15" s="3">
         <f t="shared" si="7"/>
-        <v>64.5</v>
-      </c>
-      <c r="Q15" s="3">
+        <v>146.59090909090909</v>
+      </c>
+      <c r="W15" s="3">
         <f t="shared" si="8"/>
-        <v>51.6</v>
-      </c>
-      <c r="R15" s="3">
+        <v>117.27272727272728</v>
+      </c>
+      <c r="X15" s="3">
         <f t="shared" si="9"/>
-        <v>-25.199999999999953</v>
-      </c>
-      <c r="S15" s="3">
+        <v>40.472727272727326</v>
+      </c>
+      <c r="Y15" s="3">
         <f t="shared" si="10"/>
-        <v>166.09442060085837</v>
-      </c>
-      <c r="T15" s="3">
+        <v>118.71165644171779</v>
+      </c>
+      <c r="Z15" s="3">
         <f t="shared" si="11"/>
-        <v>132.87553648068669</v>
-      </c>
-      <c r="U15" s="3">
-        <f t="shared" si="12"/>
-        <v>56.075536480686736</v>
-      </c>
-      <c r="V15" s="3">
-        <f t="shared" si="13"/>
-        <v>146.59090909090909</v>
-      </c>
-      <c r="W15" s="3">
-        <f t="shared" si="14"/>
-        <v>117.27272727272728</v>
-      </c>
-      <c r="X15" s="3">
-        <f t="shared" si="15"/>
-        <v>40.472727272727326</v>
-      </c>
-      <c r="Y15" s="3">
-        <f t="shared" si="16"/>
-        <v>118.71165644171779</v>
-      </c>
-      <c r="Z15" s="3">
-        <f t="shared" si="17"/>
         <v>94.969325153374243</v>
       </c>
       <c r="AA15" s="3">
@@ -2483,15 +2465,15 @@
         <v>18.169325153374288</v>
       </c>
       <c r="AB15" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>293.26428571428568</v>
       </c>
       <c r="AC15" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>87.979285714285695</v>
       </c>
       <c r="AD15" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>13.196892857142855</v>
       </c>
       <c r="AE15" s="3">
@@ -2530,74 +2512,74 @@
         <v>3.3140918248329978</v>
       </c>
       <c r="I16" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="16"/>
         <v>198</v>
       </c>
       <c r="J16" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="17"/>
         <v>277.2</v>
       </c>
       <c r="K16" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="18"/>
         <v>79.199999999999989</v>
       </c>
       <c r="L16" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>3.2428571428571411</v>
       </c>
       <c r="M16" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="N16" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="21"/>
         <v>79.199999999999989</v>
       </c>
       <c r="O16">
         <v>451</v>
       </c>
       <c r="P16" s="3">
+        <f t="shared" si="1"/>
+        <v>75.166666666666671</v>
+      </c>
+      <c r="Q16" s="3">
+        <f t="shared" si="2"/>
+        <v>60.13333333333334</v>
+      </c>
+      <c r="R16" s="3">
+        <f t="shared" si="3"/>
+        <v>-19.066666666666649</v>
+      </c>
+      <c r="S16" s="3">
+        <f t="shared" si="4"/>
+        <v>193.56223175965664</v>
+      </c>
+      <c r="T16" s="3">
+        <f t="shared" si="5"/>
+        <v>154.84978540772534</v>
+      </c>
+      <c r="U16" s="3">
+        <f t="shared" si="6"/>
+        <v>75.649785407725346</v>
+      </c>
+      <c r="V16" s="3">
         <f t="shared" si="7"/>
-        <v>75.166666666666671</v>
-      </c>
-      <c r="Q16" s="3">
+        <v>170.83333333333331</v>
+      </c>
+      <c r="W16" s="3">
         <f t="shared" si="8"/>
-        <v>60.13333333333334</v>
-      </c>
-      <c r="R16" s="3">
+        <v>136.66666666666666</v>
+      </c>
+      <c r="X16" s="3">
         <f t="shared" si="9"/>
-        <v>-19.066666666666649</v>
-      </c>
-      <c r="S16" s="3">
+        <v>57.466666666666669</v>
+      </c>
+      <c r="Y16" s="3">
         <f t="shared" si="10"/>
-        <v>193.56223175965664</v>
-      </c>
-      <c r="T16" s="3">
+        <v>138.34355828220859</v>
+      </c>
+      <c r="Z16" s="3">
         <f t="shared" si="11"/>
-        <v>154.84978540772534</v>
-      </c>
-      <c r="U16" s="3">
-        <f t="shared" si="12"/>
-        <v>75.649785407725346</v>
-      </c>
-      <c r="V16" s="3">
-        <f t="shared" si="13"/>
-        <v>170.83333333333331</v>
-      </c>
-      <c r="W16" s="3">
-        <f t="shared" si="14"/>
-        <v>136.66666666666666</v>
-      </c>
-      <c r="X16" s="3">
-        <f t="shared" si="15"/>
-        <v>57.466666666666669</v>
-      </c>
-      <c r="Y16" s="3">
-        <f t="shared" si="16"/>
-        <v>138.34355828220859</v>
-      </c>
-      <c r="Z16" s="3">
-        <f t="shared" si="17"/>
         <v>110.67484662576688</v>
       </c>
       <c r="AA16" s="3">
@@ -2605,15 +2587,15 @@
         <v>31.474846625766887</v>
       </c>
       <c r="AB16" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>280.44285714285712</v>
       </c>
       <c r="AC16" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>84.132857142857134</v>
       </c>
       <c r="AD16" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>12.61992857142857</v>
       </c>
       <c r="AE16" s="3">
@@ -2652,74 +2634,74 @@
         <v>3.3136483710008808</v>
       </c>
       <c r="I17" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="16"/>
         <v>74</v>
       </c>
       <c r="J17" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="17"/>
         <v>103.6</v>
       </c>
       <c r="K17" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="18"/>
         <v>29.599999999999994</v>
       </c>
       <c r="L17" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>45.61904761904762</v>
       </c>
       <c r="M17" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>30.819047619047623</v>
       </c>
       <c r="N17" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="21"/>
         <v>60.419047619047618</v>
       </c>
       <c r="O17">
         <v>310</v>
       </c>
       <c r="P17" s="3">
+        <f t="shared" si="1"/>
+        <v>51.666666666666664</v>
+      </c>
+      <c r="Q17" s="3">
+        <f t="shared" si="2"/>
+        <v>41.333333333333336</v>
+      </c>
+      <c r="R17" s="3">
+        <f t="shared" si="3"/>
+        <v>-19.085714285714282</v>
+      </c>
+      <c r="S17" s="3">
+        <f t="shared" si="4"/>
+        <v>133.04721030042919</v>
+      </c>
+      <c r="T17" s="3">
+        <f t="shared" si="5"/>
+        <v>106.43776824034336</v>
+      </c>
+      <c r="U17" s="3">
+        <f t="shared" si="6"/>
+        <v>46.018720621295742</v>
+      </c>
+      <c r="V17" s="3">
         <f t="shared" si="7"/>
-        <v>51.666666666666664</v>
-      </c>
-      <c r="Q17" s="3">
+        <v>117.42424242424242</v>
+      </c>
+      <c r="W17" s="3">
         <f t="shared" si="8"/>
-        <v>41.333333333333336</v>
-      </c>
-      <c r="R17" s="3">
+        <v>93.939393939393938</v>
+      </c>
+      <c r="X17" s="3">
         <f t="shared" si="9"/>
-        <v>-19.085714285714282</v>
-      </c>
-      <c r="S17" s="3">
+        <v>33.52034632034632</v>
+      </c>
+      <c r="Y17" s="3">
         <f t="shared" si="10"/>
-        <v>133.04721030042919</v>
-      </c>
-      <c r="T17" s="3">
+        <v>95.092024539877301</v>
+      </c>
+      <c r="Z17" s="3">
         <f t="shared" si="11"/>
-        <v>106.43776824034336</v>
-      </c>
-      <c r="U17" s="3">
-        <f t="shared" si="12"/>
-        <v>46.018720621295742</v>
-      </c>
-      <c r="V17" s="3">
-        <f t="shared" si="13"/>
-        <v>117.42424242424242</v>
-      </c>
-      <c r="W17" s="3">
-        <f t="shared" si="14"/>
-        <v>93.939393939393938</v>
-      </c>
-      <c r="X17" s="3">
-        <f t="shared" si="15"/>
-        <v>33.52034632034632</v>
-      </c>
-      <c r="Y17" s="3">
-        <f t="shared" si="16"/>
-        <v>95.092024539877301</v>
-      </c>
-      <c r="Z17" s="3">
-        <f t="shared" si="17"/>
         <v>76.073619631901849</v>
       </c>
       <c r="AA17" s="3">
@@ -2727,15 +2709,15 @@
         <v>15.654572012854231</v>
       </c>
       <c r="AB17" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>149.21904761904761</v>
       </c>
       <c r="AC17" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>44.765714285714282</v>
       </c>
       <c r="AD17" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>6.7148571428571424</v>
       </c>
       <c r="AE17" s="3">
@@ -2774,74 +2756,74 @@
         <v>3.0001038961038957</v>
       </c>
       <c r="I18" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="16"/>
         <v>73</v>
       </c>
       <c r="J18" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="17"/>
         <v>102.19999999999999</v>
       </c>
       <c r="K18" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="18"/>
         <v>29.199999999999989</v>
       </c>
       <c r="L18" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>34.997619047619047</v>
       </c>
       <c r="M18" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>20.397619047619052</v>
       </c>
       <c r="N18" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="21"/>
         <v>49.597619047619041</v>
       </c>
       <c r="O18">
         <v>258</v>
       </c>
       <c r="P18" s="3">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="Q18" s="3">
+        <f t="shared" si="2"/>
+        <v>34.4</v>
+      </c>
+      <c r="R18" s="3">
+        <f t="shared" si="3"/>
+        <v>-15.197619047619042</v>
+      </c>
+      <c r="S18" s="3">
+        <f t="shared" si="4"/>
+        <v>110.72961373390558</v>
+      </c>
+      <c r="T18" s="3">
+        <f t="shared" si="5"/>
+        <v>88.58369098712447</v>
+      </c>
+      <c r="U18" s="3">
+        <f t="shared" si="6"/>
+        <v>38.986071939505429</v>
+      </c>
+      <c r="V18" s="3">
         <f t="shared" si="7"/>
-        <v>43</v>
-      </c>
-      <c r="Q18" s="3">
+        <v>97.72727272727272</v>
+      </c>
+      <c r="W18" s="3">
         <f t="shared" si="8"/>
-        <v>34.4</v>
-      </c>
-      <c r="R18" s="3">
+        <v>78.181818181818187</v>
+      </c>
+      <c r="X18" s="3">
         <f t="shared" si="9"/>
-        <v>-15.197619047619042</v>
-      </c>
-      <c r="S18" s="3">
+        <v>28.584199134199146</v>
+      </c>
+      <c r="Y18" s="3">
         <f t="shared" si="10"/>
-        <v>110.72961373390558</v>
-      </c>
-      <c r="T18" s="3">
+        <v>79.141104294478538</v>
+      </c>
+      <c r="Z18" s="3">
         <f t="shared" si="11"/>
-        <v>88.58369098712447</v>
-      </c>
-      <c r="U18" s="3">
-        <f t="shared" si="12"/>
-        <v>38.986071939505429</v>
-      </c>
-      <c r="V18" s="3">
-        <f t="shared" si="13"/>
-        <v>97.72727272727272</v>
-      </c>
-      <c r="W18" s="3">
-        <f t="shared" si="14"/>
-        <v>78.181818181818187</v>
-      </c>
-      <c r="X18" s="3">
-        <f t="shared" si="15"/>
-        <v>28.584199134199146</v>
-      </c>
-      <c r="Y18" s="3">
-        <f t="shared" si="16"/>
-        <v>79.141104294478538</v>
-      </c>
-      <c r="Z18" s="3">
-        <f t="shared" si="17"/>
         <v>63.312883435582833</v>
       </c>
       <c r="AA18" s="3">
@@ -2849,23 +2831,23 @@
         <v>13.715264387963792</v>
       </c>
       <c r="AB18" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>137.19761904761904</v>
       </c>
       <c r="AC18" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>41.159285714285708</v>
       </c>
       <c r="AD18" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>6.1738928571428557</v>
       </c>
       <c r="AE18" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>4.1159285714285714</v>
       </c>
       <c r="AF18" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>2.0579642857142857</v>
       </c>
     </row>
@@ -2896,74 +2878,74 @@
         <v>2.7211111111111115</v>
       </c>
       <c r="I19" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="16"/>
         <v>132.5</v>
       </c>
       <c r="J19" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="17"/>
         <v>185.5</v>
       </c>
       <c r="K19" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="18"/>
         <v>53</v>
       </c>
       <c r="L19" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>78.530952380952385</v>
       </c>
       <c r="M19" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>52.030952380952385</v>
       </c>
       <c r="N19" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="21"/>
         <v>105.03095238095239</v>
       </c>
       <c r="O19">
         <v>430</v>
       </c>
       <c r="P19" s="3">
+        <f t="shared" si="1"/>
+        <v>71.666666666666671</v>
+      </c>
+      <c r="Q19" s="3">
+        <f t="shared" si="2"/>
+        <v>57.333333333333343</v>
+      </c>
+      <c r="R19" s="3">
+        <f t="shared" si="3"/>
+        <v>-47.697619047619042</v>
+      </c>
+      <c r="S19" s="3">
+        <f t="shared" si="4"/>
+        <v>184.54935622317595</v>
+      </c>
+      <c r="T19" s="3">
+        <f t="shared" si="5"/>
+        <v>147.63948497854076</v>
+      </c>
+      <c r="U19" s="3">
+        <f t="shared" si="6"/>
+        <v>42.608532597588379</v>
+      </c>
+      <c r="V19" s="3">
         <f t="shared" si="7"/>
-        <v>71.666666666666671</v>
-      </c>
-      <c r="Q19" s="3">
+        <v>162.87878787878788</v>
+      </c>
+      <c r="W19" s="3">
         <f t="shared" si="8"/>
-        <v>57.333333333333343</v>
-      </c>
-      <c r="R19" s="3">
+        <v>130.30303030303031</v>
+      </c>
+      <c r="X19" s="3">
         <f t="shared" si="9"/>
-        <v>-47.697619047619042</v>
-      </c>
-      <c r="S19" s="3">
+        <v>25.272077922077926</v>
+      </c>
+      <c r="Y19" s="3">
         <f t="shared" si="10"/>
-        <v>184.54935622317595</v>
-      </c>
-      <c r="T19" s="3">
+        <v>131.90184049079755</v>
+      </c>
+      <c r="Z19" s="3">
         <f t="shared" si="11"/>
-        <v>147.63948497854076</v>
-      </c>
-      <c r="U19" s="3">
-        <f t="shared" si="12"/>
-        <v>42.608532597588379</v>
-      </c>
-      <c r="V19" s="3">
-        <f t="shared" si="13"/>
-        <v>162.87878787878788</v>
-      </c>
-      <c r="W19" s="3">
-        <f t="shared" si="14"/>
-        <v>130.30303030303031</v>
-      </c>
-      <c r="X19" s="3">
-        <f t="shared" si="15"/>
-        <v>25.272077922077926</v>
-      </c>
-      <c r="Y19" s="3">
-        <f t="shared" si="16"/>
-        <v>131.90184049079755</v>
-      </c>
-      <c r="Z19" s="3">
-        <f t="shared" si="17"/>
         <v>105.52147239263805</v>
       </c>
       <c r="AA19" s="3">
@@ -2971,23 +2953,23 @@
         <v>0.49052001168566051</v>
       </c>
       <c r="AB19" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>264.03095238095239</v>
       </c>
       <c r="AC19" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>79.209285714285713</v>
       </c>
       <c r="AD19" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>11.881392857142856</v>
       </c>
       <c r="AE19" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>7.920928571428572</v>
       </c>
       <c r="AF19" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>3.960464285714286</v>
       </c>
     </row>
@@ -3018,74 +3000,74 @@
         <v>2.4238991270611057</v>
       </c>
       <c r="I20" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="16"/>
         <v>127</v>
       </c>
       <c r="J20" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="17"/>
         <v>177.79999999999998</v>
       </c>
       <c r="K20" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="18"/>
         <v>50.799999999999983</v>
       </c>
       <c r="L20" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>63.321428571428569</v>
       </c>
       <c r="M20" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>37.921428571428578</v>
       </c>
       <c r="N20" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="21"/>
         <v>88.721428571428561</v>
       </c>
       <c r="O20">
         <v>272</v>
       </c>
       <c r="P20" s="3">
+        <f t="shared" si="1"/>
+        <v>45.333333333333336</v>
+      </c>
+      <c r="Q20" s="3">
+        <f t="shared" si="2"/>
+        <v>36.266666666666673</v>
+      </c>
+      <c r="R20" s="3">
+        <f t="shared" si="3"/>
+        <v>-52.454761904761888</v>
+      </c>
+      <c r="S20" s="3">
+        <f t="shared" si="4"/>
+        <v>116.7381974248927</v>
+      </c>
+      <c r="T20" s="3">
+        <f t="shared" si="5"/>
+        <v>93.390557939914174</v>
+      </c>
+      <c r="U20" s="3">
+        <f t="shared" si="6"/>
+        <v>4.6691293684856134</v>
+      </c>
+      <c r="V20" s="3">
         <f t="shared" si="7"/>
-        <v>45.333333333333336</v>
-      </c>
-      <c r="Q20" s="3">
+        <v>103.03030303030303</v>
+      </c>
+      <c r="W20" s="3">
         <f t="shared" si="8"/>
-        <v>36.266666666666673</v>
-      </c>
-      <c r="R20" s="3">
+        <v>82.424242424242436</v>
+      </c>
+      <c r="X20" s="3">
         <f t="shared" si="9"/>
-        <v>-52.454761904761888</v>
-      </c>
-      <c r="S20" s="3">
+        <v>-6.2971861471861246</v>
+      </c>
+      <c r="Y20" s="3">
         <f t="shared" si="10"/>
-        <v>116.7381974248927</v>
-      </c>
-      <c r="T20" s="3">
+        <v>83.435582822085891</v>
+      </c>
+      <c r="Z20" s="3">
         <f t="shared" si="11"/>
-        <v>93.390557939914174</v>
-      </c>
-      <c r="U20" s="3">
-        <f t="shared" si="12"/>
-        <v>4.6691293684856134</v>
-      </c>
-      <c r="V20" s="3">
-        <f t="shared" si="13"/>
-        <v>103.03030303030303</v>
-      </c>
-      <c r="W20" s="3">
-        <f t="shared" si="14"/>
-        <v>82.424242424242436</v>
-      </c>
-      <c r="X20" s="3">
-        <f t="shared" si="15"/>
-        <v>-6.2971861471861246</v>
-      </c>
-      <c r="Y20" s="3">
-        <f t="shared" si="16"/>
-        <v>83.435582822085891</v>
-      </c>
-      <c r="Z20" s="3">
-        <f t="shared" si="17"/>
         <v>66.74846625766871</v>
       </c>
       <c r="AA20" s="3">
@@ -3093,23 +3075,23 @@
         <v>-21.972962313759851</v>
       </c>
       <c r="AB20" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>241.12142857142857</v>
       </c>
       <c r="AC20" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>72.33642857142857</v>
       </c>
       <c r="AD20" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>10.850464285714285</v>
       </c>
       <c r="AE20" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>7.2336428571428577</v>
       </c>
       <c r="AF20" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>3.6168214285714289</v>
       </c>
     </row>
@@ -3140,74 +3122,74 @@
         <v>3.3420849420849423</v>
       </c>
       <c r="I21" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="16"/>
         <v>74</v>
       </c>
       <c r="J21" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="17"/>
         <v>103.6</v>
       </c>
       <c r="K21" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="18"/>
         <v>29.599999999999994</v>
       </c>
       <c r="L21" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>46.885714285714286</v>
       </c>
       <c r="M21" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>32.085714285714289</v>
       </c>
       <c r="N21" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="21"/>
         <v>61.685714285714283</v>
       </c>
       <c r="O21">
         <v>331</v>
       </c>
       <c r="P21" s="3">
+        <f t="shared" si="1"/>
+        <v>55.166666666666664</v>
+      </c>
+      <c r="Q21" s="3">
+        <f t="shared" si="2"/>
+        <v>44.133333333333333</v>
+      </c>
+      <c r="R21" s="3">
+        <f t="shared" si="3"/>
+        <v>-17.55238095238095</v>
+      </c>
+      <c r="S21" s="3">
+        <f t="shared" si="4"/>
+        <v>142.06008583690988</v>
+      </c>
+      <c r="T21" s="3">
+        <f t="shared" si="5"/>
+        <v>113.6480686695279</v>
+      </c>
+      <c r="U21" s="3">
+        <f t="shared" si="6"/>
+        <v>51.962354383813619</v>
+      </c>
+      <c r="V21" s="3">
         <f t="shared" si="7"/>
-        <v>55.166666666666664</v>
-      </c>
-      <c r="Q21" s="3">
+        <v>125.37878787878788</v>
+      </c>
+      <c r="W21" s="3">
         <f t="shared" si="8"/>
-        <v>44.133333333333333</v>
-      </c>
-      <c r="R21" s="3">
+        <v>100.30303030303031</v>
+      </c>
+      <c r="X21" s="3">
         <f t="shared" si="9"/>
-        <v>-17.55238095238095</v>
-      </c>
-      <c r="S21" s="3">
+        <v>38.617316017316028</v>
+      </c>
+      <c r="Y21" s="3">
         <f t="shared" si="10"/>
-        <v>142.06008583690988</v>
-      </c>
-      <c r="T21" s="3">
+        <v>101.53374233128835</v>
+      </c>
+      <c r="Z21" s="3">
         <f t="shared" si="11"/>
-        <v>113.6480686695279</v>
-      </c>
-      <c r="U21" s="3">
-        <f t="shared" si="12"/>
-        <v>51.962354383813619</v>
-      </c>
-      <c r="V21" s="3">
-        <f t="shared" si="13"/>
-        <v>125.37878787878788</v>
-      </c>
-      <c r="W21" s="3">
-        <f t="shared" si="14"/>
-        <v>100.30303030303031</v>
-      </c>
-      <c r="X21" s="3">
-        <f t="shared" si="15"/>
-        <v>38.617316017316028</v>
-      </c>
-      <c r="Y21" s="3">
-        <f t="shared" si="16"/>
-        <v>101.53374233128835</v>
-      </c>
-      <c r="Z21" s="3">
-        <f t="shared" si="17"/>
         <v>81.226993865030693</v>
       </c>
       <c r="AA21" s="3">
@@ -3215,23 +3197,23 @@
         <v>19.541279579316409</v>
       </c>
       <c r="AB21" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>150.48571428571427</v>
       </c>
       <c r="AC21" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>45.145714285714277</v>
       </c>
       <c r="AD21" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>6.771857142857141</v>
       </c>
       <c r="AE21" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>4.5145714285714282</v>
       </c>
       <c r="AF21" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>2.2572857142857141</v>
       </c>
     </row>
@@ -3262,74 +3244,74 @@
         <v>3.4411405295315682</v>
       </c>
       <c r="I22" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="16"/>
         <v>264</v>
       </c>
       <c r="J22" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="17"/>
         <v>369.59999999999997</v>
       </c>
       <c r="K22" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="18"/>
         <v>105.59999999999997</v>
       </c>
       <c r="L22" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>49.657142857142844</v>
       </c>
       <c r="M22" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="N22" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="21"/>
         <v>105.59999999999997</v>
       </c>
       <c r="O22">
         <v>474</v>
       </c>
       <c r="P22" s="3">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+      <c r="Q22" s="3">
+        <f t="shared" si="2"/>
+        <v>63.2</v>
+      </c>
+      <c r="R22" s="3">
+        <f t="shared" si="3"/>
+        <v>-42.399999999999963</v>
+      </c>
+      <c r="S22" s="3">
+        <f t="shared" si="4"/>
+        <v>203.43347639484978</v>
+      </c>
+      <c r="T22" s="3">
+        <f t="shared" si="5"/>
+        <v>162.74678111587983</v>
+      </c>
+      <c r="U22" s="3">
+        <f t="shared" si="6"/>
+        <v>57.146781115879861</v>
+      </c>
+      <c r="V22" s="3">
         <f t="shared" si="7"/>
-        <v>79</v>
-      </c>
-      <c r="Q22" s="3">
+        <v>179.54545454545453</v>
+      </c>
+      <c r="W22" s="3">
         <f t="shared" si="8"/>
-        <v>63.2</v>
-      </c>
-      <c r="R22" s="3">
+        <v>143.63636363636363</v>
+      </c>
+      <c r="X22" s="3">
         <f t="shared" si="9"/>
-        <v>-42.399999999999963</v>
-      </c>
-      <c r="S22" s="3">
+        <v>38.03636363636366</v>
+      </c>
+      <c r="Y22" s="3">
         <f t="shared" si="10"/>
-        <v>203.43347639484978</v>
-      </c>
-      <c r="T22" s="3">
+        <v>145.39877300613497</v>
+      </c>
+      <c r="Z22" s="3">
         <f t="shared" si="11"/>
-        <v>162.74678111587983</v>
-      </c>
-      <c r="U22" s="3">
-        <f t="shared" si="12"/>
-        <v>57.146781115879861</v>
-      </c>
-      <c r="V22" s="3">
-        <f t="shared" si="13"/>
-        <v>179.54545454545453</v>
-      </c>
-      <c r="W22" s="3">
-        <f t="shared" si="14"/>
-        <v>143.63636363636363</v>
-      </c>
-      <c r="X22" s="3">
-        <f t="shared" si="15"/>
-        <v>38.03636363636366</v>
-      </c>
-      <c r="Y22" s="3">
-        <f t="shared" si="16"/>
-        <v>145.39877300613497</v>
-      </c>
-      <c r="Z22" s="3">
-        <f t="shared" si="17"/>
         <v>116.31901840490798</v>
       </c>
       <c r="AA22" s="3">
@@ -3337,23 +3319,23 @@
         <v>10.719018404908013</v>
       </c>
       <c r="AB22" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>419.25714285714281</v>
       </c>
       <c r="AC22" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>125.77714285714283</v>
       </c>
       <c r="AD22" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>18.866571428571426</v>
       </c>
       <c r="AE22" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>12.577714285714285</v>
       </c>
       <c r="AF22" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>6.2888571428571423</v>
       </c>
     </row>
@@ -3384,74 +3366,74 @@
         <v>3.0617612524461841</v>
       </c>
       <c r="I23" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="16"/>
         <v>194</v>
       </c>
       <c r="J23" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="17"/>
         <v>271.59999999999997</v>
       </c>
       <c r="K23" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="18"/>
         <v>77.599999999999966</v>
       </c>
       <c r="L23" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>17.357142857142843</v>
       </c>
       <c r="M23" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="N23" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="21"/>
         <v>77.599999999999966</v>
       </c>
       <c r="O23">
         <v>448</v>
       </c>
       <c r="P23" s="3">
+        <f t="shared" si="1"/>
+        <v>74.666666666666671</v>
+      </c>
+      <c r="Q23" s="3">
+        <f t="shared" si="2"/>
+        <v>59.733333333333341</v>
+      </c>
+      <c r="R23" s="3">
+        <f t="shared" si="3"/>
+        <v>-17.866666666666625</v>
+      </c>
+      <c r="S23" s="3">
+        <f t="shared" si="4"/>
+        <v>192.27467811158797</v>
+      </c>
+      <c r="T23" s="3">
+        <f t="shared" si="5"/>
+        <v>153.8197424892704</v>
+      </c>
+      <c r="U23" s="3">
+        <f t="shared" si="6"/>
+        <v>76.21974248927043</v>
+      </c>
+      <c r="V23" s="3">
         <f t="shared" si="7"/>
-        <v>74.666666666666671</v>
-      </c>
-      <c r="Q23" s="3">
+        <v>169.69696969696969</v>
+      </c>
+      <c r="W23" s="3">
         <f t="shared" si="8"/>
-        <v>59.733333333333341</v>
-      </c>
-      <c r="R23" s="3">
+        <v>135.75757575757575</v>
+      </c>
+      <c r="X23" s="3">
         <f t="shared" si="9"/>
-        <v>-17.866666666666625</v>
-      </c>
-      <c r="S23" s="3">
+        <v>58.157575757575785</v>
+      </c>
+      <c r="Y23" s="3">
         <f t="shared" si="10"/>
-        <v>192.27467811158797</v>
-      </c>
-      <c r="T23" s="3">
+        <v>137.42331288343559</v>
+      </c>
+      <c r="Z23" s="3">
         <f t="shared" si="11"/>
-        <v>153.8197424892704</v>
-      </c>
-      <c r="U23" s="3">
-        <f t="shared" si="12"/>
-        <v>76.21974248927043</v>
-      </c>
-      <c r="V23" s="3">
-        <f t="shared" si="13"/>
-        <v>169.69696969696969</v>
-      </c>
-      <c r="W23" s="3">
-        <f t="shared" si="14"/>
-        <v>135.75757575757575</v>
-      </c>
-      <c r="X23" s="3">
-        <f t="shared" si="15"/>
-        <v>58.157575757575785</v>
-      </c>
-      <c r="Y23" s="3">
-        <f t="shared" si="16"/>
-        <v>137.42331288343559</v>
-      </c>
-      <c r="Z23" s="3">
-        <f t="shared" si="17"/>
         <v>109.93865030674847</v>
       </c>
       <c r="AA23" s="3">
@@ -3459,23 +3441,23 @@
         <v>32.338650306748505</v>
       </c>
       <c r="AB23" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>288.9571428571428</v>
       </c>
       <c r="AC23" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>86.687142857142831</v>
       </c>
       <c r="AD23" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>13.003071428571424</v>
       </c>
       <c r="AE23" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>8.6687142857142838</v>
       </c>
       <c r="AF23" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>4.3343571428571419</v>
       </c>
     </row>
@@ -3500,47 +3482,47 @@
         <v>614</v>
       </c>
       <c r="P24" s="34">
+        <f t="shared" si="1"/>
+        <v>102.33333333333333</v>
+      </c>
+      <c r="Q24" s="34">
+        <f t="shared" si="2"/>
+        <v>81.866666666666674</v>
+      </c>
+      <c r="R24" s="34">
+        <f t="shared" si="3"/>
+        <v>81.866666666666674</v>
+      </c>
+      <c r="S24" s="34">
+        <f t="shared" si="4"/>
+        <v>263.51931330472104</v>
+      </c>
+      <c r="T24" s="34">
+        <f t="shared" si="5"/>
+        <v>210.81545064377684</v>
+      </c>
+      <c r="U24" s="34">
+        <f t="shared" si="6"/>
+        <v>210.81545064377684</v>
+      </c>
+      <c r="V24" s="34">
         <f t="shared" si="7"/>
-        <v>102.33333333333333</v>
-      </c>
-      <c r="Q24" s="34">
+        <v>232.57575757575756</v>
+      </c>
+      <c r="W24" s="34">
         <f t="shared" si="8"/>
-        <v>81.866666666666674</v>
-      </c>
-      <c r="R24" s="34">
+        <v>186.06060606060606</v>
+      </c>
+      <c r="X24" s="34">
         <f t="shared" si="9"/>
-        <v>81.866666666666674</v>
-      </c>
-      <c r="S24" s="34">
+        <v>186.06060606060606</v>
+      </c>
+      <c r="Y24" s="34">
         <f t="shared" si="10"/>
-        <v>263.51931330472104</v>
-      </c>
-      <c r="T24" s="34">
+        <v>188.34355828220859</v>
+      </c>
+      <c r="Z24" s="34">
         <f t="shared" si="11"/>
-        <v>210.81545064377684</v>
-      </c>
-      <c r="U24" s="34">
-        <f t="shared" si="12"/>
-        <v>210.81545064377684</v>
-      </c>
-      <c r="V24" s="34">
-        <f t="shared" si="13"/>
-        <v>232.57575757575756</v>
-      </c>
-      <c r="W24" s="34">
-        <f t="shared" si="14"/>
-        <v>186.06060606060606</v>
-      </c>
-      <c r="X24" s="34">
-        <f t="shared" si="15"/>
-        <v>186.06060606060606</v>
-      </c>
-      <c r="Y24" s="34">
-        <f t="shared" si="16"/>
-        <v>188.34355828220859</v>
-      </c>
-      <c r="Z24" s="34">
-        <f t="shared" si="17"/>
         <v>150.67484662576689</v>
       </c>
       <c r="AA24" s="34">
@@ -3548,23 +3530,23 @@
         <v>150.67484662576689</v>
       </c>
       <c r="AB24" s="34">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AC24" s="34">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AD24" s="34">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AE24" s="34">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AF24" s="34">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -3595,74 +3577,74 @@
         <v>3.4371514371514373</v>
       </c>
       <c r="I25" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="16"/>
         <v>135</v>
       </c>
       <c r="J25" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="17"/>
         <v>189</v>
       </c>
       <c r="K25" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="18"/>
         <v>54</v>
       </c>
       <c r="L25" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>25.326190476190476</v>
       </c>
       <c r="M25" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="N25" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="21"/>
         <v>54</v>
       </c>
       <c r="O25">
         <v>331</v>
       </c>
       <c r="P25" s="3">
+        <f t="shared" si="1"/>
+        <v>55.166666666666664</v>
+      </c>
+      <c r="Q25" s="3">
+        <f t="shared" si="2"/>
+        <v>44.133333333333333</v>
+      </c>
+      <c r="R25" s="3">
+        <f t="shared" si="3"/>
+        <v>-9.8666666666666671</v>
+      </c>
+      <c r="S25" s="3">
+        <f t="shared" si="4"/>
+        <v>142.06008583690988</v>
+      </c>
+      <c r="T25" s="3">
+        <f t="shared" si="5"/>
+        <v>113.6480686695279</v>
+      </c>
+      <c r="U25" s="3">
+        <f t="shared" si="6"/>
+        <v>59.648068669527902</v>
+      </c>
+      <c r="V25" s="3">
         <f t="shared" si="7"/>
-        <v>55.166666666666664</v>
-      </c>
-      <c r="Q25" s="3">
+        <v>125.37878787878788</v>
+      </c>
+      <c r="W25" s="3">
         <f t="shared" si="8"/>
-        <v>44.133333333333333</v>
-      </c>
-      <c r="R25" s="3">
+        <v>100.30303030303031</v>
+      </c>
+      <c r="X25" s="3">
         <f t="shared" si="9"/>
-        <v>-9.8666666666666671</v>
-      </c>
-      <c r="S25" s="3">
+        <v>46.303030303030312</v>
+      </c>
+      <c r="Y25" s="3">
         <f t="shared" si="10"/>
-        <v>142.06008583690988</v>
-      </c>
-      <c r="T25" s="3">
+        <v>101.53374233128835</v>
+      </c>
+      <c r="Z25" s="3">
         <f t="shared" si="11"/>
-        <v>113.6480686695279</v>
-      </c>
-      <c r="U25" s="3">
-        <f t="shared" si="12"/>
-        <v>59.648068669527902</v>
-      </c>
-      <c r="V25" s="3">
-        <f t="shared" si="13"/>
-        <v>125.37878787878788</v>
-      </c>
-      <c r="W25" s="3">
-        <f t="shared" si="14"/>
-        <v>100.30303030303031</v>
-      </c>
-      <c r="X25" s="3">
-        <f t="shared" si="15"/>
-        <v>46.303030303030312</v>
-      </c>
-      <c r="Y25" s="3">
-        <f t="shared" si="16"/>
-        <v>101.53374233128835</v>
-      </c>
-      <c r="Z25" s="3">
-        <f t="shared" si="17"/>
         <v>81.226993865030693</v>
       </c>
       <c r="AA25" s="3">
@@ -3670,23 +3652,23 @@
         <v>27.226993865030693</v>
       </c>
       <c r="AB25" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>214.32619047619048</v>
       </c>
       <c r="AC25" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>64.29785714285714</v>
       </c>
       <c r="AD25" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>9.644678571428571</v>
       </c>
       <c r="AE25" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>6.429785714285714</v>
       </c>
       <c r="AF25" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>3.214892857142857</v>
       </c>
     </row>
@@ -3701,7 +3683,7 @@
       <c r="H26" s="2"/>
       <c r="I26" s="11"/>
       <c r="J26" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K26" s="12"/>
@@ -3721,23 +3703,23 @@
       <c r="Z26" s="3"/>
       <c r="AA26" s="3"/>
       <c r="AB26" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AC26" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AD26" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AE26" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AF26" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -3757,7 +3739,7 @@
       <c r="E27" s="6"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1">
-        <f t="shared" ref="G27:J27" si="47">SUM(G2:G25)</f>
+        <f t="shared" ref="G27:I27" si="47">SUM(G2:G25)</f>
         <v>6417</v>
       </c>
       <c r="H27" s="2">
@@ -3769,7 +3751,7 @@
         <v>3208.5</v>
       </c>
       <c r="J27" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="17"/>
         <v>4491.8999999999996</v>
       </c>
       <c r="K27" s="12">
@@ -3819,23 +3801,23 @@
       </c>
       <c r="AA27" s="3"/>
       <c r="AB27" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>4491.8999999999996</v>
       </c>
       <c r="AC27" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>1347.57</v>
       </c>
       <c r="AD27" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>202.13549999999998</v>
       </c>
       <c r="AE27" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>134.75700000000001</v>
       </c>
       <c r="AF27" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>67.378500000000003</v>
       </c>
     </row>
@@ -3850,7 +3832,7 @@
       <c r="H28" s="2"/>
       <c r="I28" s="11"/>
       <c r="J28" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K28" s="12"/>
@@ -3872,23 +3854,23 @@
       <c r="Z28" s="3"/>
       <c r="AA28" s="3"/>
       <c r="AB28" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AC28" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AD28" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AE28" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AF28" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -3907,7 +3889,7 @@
       <c r="H29" s="2"/>
       <c r="I29" s="11"/>
       <c r="J29" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="17"/>
         <v>244.99999999999997</v>
       </c>
       <c r="K29" s="12"/>
@@ -3927,23 +3909,23 @@
       <c r="Z29" s="3"/>
       <c r="AA29" s="3"/>
       <c r="AB29" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>244.99999999999997</v>
       </c>
       <c r="AC29" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>73.499999999999986</v>
       </c>
       <c r="AD29" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>11.024999999999997</v>
       </c>
       <c r="AE29" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>7.3499999999999988</v>
       </c>
       <c r="AF29" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>3.6749999999999994</v>
       </c>
     </row>
@@ -3962,7 +3944,7 @@
       <c r="H30" s="2"/>
       <c r="I30" s="11"/>
       <c r="J30" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="17"/>
         <v>182</v>
       </c>
       <c r="K30" s="12"/>
@@ -3982,23 +3964,23 @@
       <c r="Z30" s="3"/>
       <c r="AA30" s="3"/>
       <c r="AB30" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>182</v>
       </c>
       <c r="AC30" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>54.6</v>
       </c>
       <c r="AD30" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>8.19</v>
       </c>
       <c r="AE30" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>5.4600000000000009</v>
       </c>
       <c r="AF30" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>2.7300000000000004</v>
       </c>
     </row>
@@ -4017,7 +3999,7 @@
       <c r="H31" s="2"/>
       <c r="I31" s="11"/>
       <c r="J31" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="17"/>
         <v>105</v>
       </c>
       <c r="K31" s="12"/>
@@ -4037,23 +4019,23 @@
       <c r="Z31" s="3"/>
       <c r="AA31" s="3"/>
       <c r="AB31" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>105</v>
       </c>
       <c r="AC31" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>31.5</v>
       </c>
       <c r="AD31" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>4.7249999999999996</v>
       </c>
       <c r="AE31" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>3.1500000000000004</v>
       </c>
       <c r="AF31" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>1.5750000000000002</v>
       </c>
     </row>
@@ -4072,7 +4054,7 @@
       <c r="H32" s="2"/>
       <c r="I32" s="11"/>
       <c r="J32" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="17"/>
         <v>308</v>
       </c>
       <c r="K32" s="12"/>
@@ -4092,23 +4074,23 @@
       <c r="Z32" s="3"/>
       <c r="AA32" s="3"/>
       <c r="AB32" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>308</v>
       </c>
       <c r="AC32" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>92.399999999999991</v>
       </c>
       <c r="AD32" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>13.859999999999998</v>
       </c>
       <c r="AE32" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>9.24</v>
       </c>
       <c r="AF32" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>4.62</v>
       </c>
     </row>
@@ -4127,7 +4109,7 @@
       <c r="H33" s="2"/>
       <c r="I33" s="11"/>
       <c r="J33" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="17"/>
         <v>140</v>
       </c>
       <c r="K33" s="12"/>
@@ -4147,23 +4129,23 @@
       <c r="Z33" s="3"/>
       <c r="AA33" s="3"/>
       <c r="AB33" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>140</v>
       </c>
       <c r="AC33" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>42</v>
       </c>
       <c r="AD33" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>6.3</v>
       </c>
       <c r="AE33" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>4.2</v>
       </c>
       <c r="AF33" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>2.1</v>
       </c>
     </row>
@@ -4182,7 +4164,7 @@
       <c r="H34" s="2"/>
       <c r="I34" s="11"/>
       <c r="J34" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="17"/>
         <v>161</v>
       </c>
       <c r="K34" s="12"/>
@@ -4202,23 +4184,23 @@
       <c r="Z34" s="3"/>
       <c r="AA34" s="3"/>
       <c r="AB34" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>161</v>
       </c>
       <c r="AC34" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>48.3</v>
       </c>
       <c r="AD34" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>7.2449999999999992</v>
       </c>
       <c r="AE34" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>4.83</v>
       </c>
       <c r="AF34" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>2.415</v>
       </c>
     </row>
@@ -4237,7 +4219,7 @@
       <c r="H35" s="2"/>
       <c r="I35" s="11"/>
       <c r="J35" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="17"/>
         <v>203</v>
       </c>
       <c r="K35" s="12"/>
@@ -4257,23 +4239,23 @@
       <c r="Z35" s="3"/>
       <c r="AA35" s="3"/>
       <c r="AB35" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>203</v>
       </c>
       <c r="AC35" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>60.9</v>
       </c>
       <c r="AD35" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>9.1349999999999998</v>
       </c>
       <c r="AE35" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>6.09</v>
       </c>
       <c r="AF35" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>3.0449999999999999</v>
       </c>
     </row>
@@ -4292,7 +4274,7 @@
       <c r="H36" s="2"/>
       <c r="I36" s="11"/>
       <c r="J36" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="17"/>
         <v>175</v>
       </c>
       <c r="K36" s="12"/>
@@ -4312,23 +4294,23 @@
       <c r="Z36" s="3"/>
       <c r="AA36" s="3"/>
       <c r="AB36" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>175</v>
       </c>
       <c r="AC36" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>52.5</v>
       </c>
       <c r="AD36" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>7.875</v>
       </c>
       <c r="AE36" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>5.25</v>
       </c>
       <c r="AF36" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>2.625</v>
       </c>
     </row>
@@ -4368,7 +4350,7 @@
       <c r="Z37" s="45"/>
       <c r="AA37" s="45"/>
       <c r="AB37" s="45">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>3333.3333333333335</v>
       </c>
       <c r="AC37" s="45">
@@ -4376,15 +4358,15 @@
         <v>666.66666666666674</v>
       </c>
       <c r="AD37" s="45">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>100.00000000000001</v>
       </c>
       <c r="AE37" s="45">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>66.666666666666671</v>
       </c>
       <c r="AF37" s="45">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>33.333333333333336</v>
       </c>
     </row>
@@ -4403,7 +4385,7 @@
       <c r="H38" s="2"/>
       <c r="I38" s="11"/>
       <c r="J38" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="17"/>
         <v>122.49999999999999</v>
       </c>
       <c r="K38" s="12"/>
@@ -4423,23 +4405,23 @@
       <c r="Z38" s="3"/>
       <c r="AA38" s="3"/>
       <c r="AB38" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>122.49999999999999</v>
       </c>
       <c r="AC38" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>36.749999999999993</v>
       </c>
       <c r="AD38" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>5.5124999999999984</v>
       </c>
       <c r="AE38" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>3.6749999999999994</v>
       </c>
       <c r="AF38" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>1.8374999999999997</v>
       </c>
     </row>
@@ -4458,7 +4440,7 @@
       <c r="H39" s="2"/>
       <c r="I39" s="11"/>
       <c r="J39" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="17"/>
         <v>182</v>
       </c>
       <c r="K39" s="12"/>
@@ -4478,23 +4460,23 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>182</v>
       </c>
       <c r="AC39" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>54.6</v>
       </c>
       <c r="AD39" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>8.19</v>
       </c>
       <c r="AE39" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>5.4600000000000009</v>
       </c>
       <c r="AF39" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>2.7300000000000004</v>
       </c>
     </row>
@@ -4513,7 +4495,7 @@
       <c r="H40" s="2"/>
       <c r="I40" s="11"/>
       <c r="J40" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="17"/>
         <v>244.99999999999997</v>
       </c>
       <c r="K40" s="12"/>
@@ -4533,23 +4515,23 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>244.99999999999997</v>
       </c>
       <c r="AC40" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>73.499999999999986</v>
       </c>
       <c r="AD40" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>11.024999999999997</v>
       </c>
       <c r="AE40" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>7.3499999999999988</v>
       </c>
       <c r="AF40" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>3.6749999999999994</v>
       </c>
     </row>
@@ -4568,7 +4550,7 @@
       <c r="H41" s="2"/>
       <c r="I41" s="11"/>
       <c r="J41" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="17"/>
         <v>242.2</v>
       </c>
       <c r="K41" s="12"/>
@@ -4588,23 +4570,23 @@
       <c r="Z41" s="3"/>
       <c r="AA41" s="3"/>
       <c r="AB41" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>242.2</v>
       </c>
       <c r="AC41" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>72.66</v>
       </c>
       <c r="AD41" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>10.898999999999999</v>
       </c>
       <c r="AE41" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>7.266</v>
       </c>
       <c r="AF41" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>3.633</v>
       </c>
     </row>
@@ -4623,7 +4605,7 @@
       <c r="H42" s="2"/>
       <c r="I42" s="11"/>
       <c r="J42" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="17"/>
         <v>226.79999999999998</v>
       </c>
       <c r="K42" s="12"/>
@@ -4643,23 +4625,23 @@
       <c r="Z42" s="3"/>
       <c r="AA42" s="3"/>
       <c r="AB42" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>226.79999999999998</v>
       </c>
       <c r="AC42" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>68.039999999999992</v>
       </c>
       <c r="AD42" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>10.205999999999998</v>
       </c>
       <c r="AE42" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>6.8039999999999994</v>
       </c>
       <c r="AF42" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>3.4019999999999997</v>
       </c>
     </row>
@@ -4678,7 +4660,7 @@
       <c r="H43" s="2"/>
       <c r="I43" s="11"/>
       <c r="J43" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="17"/>
         <v>205.79999999999998</v>
       </c>
       <c r="K43" s="12"/>
@@ -4698,23 +4680,23 @@
       <c r="Z43" s="3"/>
       <c r="AA43" s="3"/>
       <c r="AB43" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>205.79999999999998</v>
       </c>
       <c r="AC43" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>61.739999999999995</v>
       </c>
       <c r="AD43" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>9.2609999999999992</v>
       </c>
       <c r="AE43" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>6.1739999999999995</v>
       </c>
       <c r="AF43" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>3.0869999999999997</v>
       </c>
     </row>
@@ -4733,7 +4715,7 @@
       <c r="H44" s="2"/>
       <c r="I44" s="11"/>
       <c r="J44" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="17"/>
         <v>125.99999999999999</v>
       </c>
       <c r="K44" s="12"/>
@@ -4753,23 +4735,23 @@
       <c r="Z44" s="3"/>
       <c r="AA44" s="3"/>
       <c r="AB44" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>125.99999999999999</v>
       </c>
       <c r="AC44" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>37.799999999999997</v>
       </c>
       <c r="AD44" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>5.669999999999999</v>
       </c>
       <c r="AE44" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>3.78</v>
       </c>
       <c r="AF44" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>1.89</v>
       </c>
     </row>
@@ -4788,7 +4770,7 @@
       <c r="H45" s="2"/>
       <c r="I45" s="11"/>
       <c r="J45" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="17"/>
         <v>140</v>
       </c>
       <c r="K45" s="12"/>
@@ -4808,23 +4790,23 @@
       <c r="Z45" s="3"/>
       <c r="AA45" s="3"/>
       <c r="AB45" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>140</v>
       </c>
       <c r="AC45" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>42</v>
       </c>
       <c r="AD45" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>6.3</v>
       </c>
       <c r="AE45" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>4.2</v>
       </c>
       <c r="AF45" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>2.1</v>
       </c>
     </row>
@@ -4858,23 +4840,23 @@
       <c r="Z46" s="3"/>
       <c r="AA46" s="3"/>
       <c r="AB46" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AC46" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AD46" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AE46" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AF46" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -4908,15 +4890,15 @@
       <c r="Z47" s="3"/>
       <c r="AA47" s="3"/>
       <c r="AB47" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AC47" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AD47" s="3">
-        <f t="shared" ref="AD47:AF60" si="48">$AC47*AD$1</f>
+        <f t="shared" ref="AD47:AF59" si="48">$AC47*AD$1</f>
         <v>0</v>
       </c>
       <c r="AE47" s="3">
@@ -4958,11 +4940,11 @@
       <c r="Z48" s="3"/>
       <c r="AA48" s="3"/>
       <c r="AB48" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AC48" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AD48" s="3">
@@ -5015,7 +4997,7 @@
       <c r="Z49" s="45"/>
       <c r="AA49" s="45"/>
       <c r="AB49" s="45">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>1333.3333333333333</v>
       </c>
       <c r="AC49" s="45">
@@ -5065,11 +5047,11 @@
       <c r="Z50" s="3"/>
       <c r="AA50" s="3"/>
       <c r="AB50" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AC50" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AD50" s="3">
@@ -5100,7 +5082,7 @@
       <c r="H51" s="2"/>
       <c r="I51" s="11"/>
       <c r="J51" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="17"/>
         <v>735</v>
       </c>
       <c r="K51" s="12"/>
@@ -5120,11 +5102,11 @@
       <c r="Z51" s="3"/>
       <c r="AA51" s="3"/>
       <c r="AB51" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>735</v>
       </c>
       <c r="AC51" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>220.5</v>
       </c>
       <c r="AD51" s="3">
@@ -5170,11 +5152,11 @@
       <c r="Z52" s="3"/>
       <c r="AA52" s="3"/>
       <c r="AB52" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AC52" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AD52" s="3">
@@ -5205,7 +5187,7 @@
       <c r="H53" s="2"/>
       <c r="I53" s="11"/>
       <c r="J53" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="17"/>
         <v>280</v>
       </c>
       <c r="K53" s="12"/>
@@ -5225,11 +5207,11 @@
       <c r="Z53" s="3"/>
       <c r="AA53" s="3"/>
       <c r="AB53" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>280</v>
       </c>
       <c r="AC53" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>84</v>
       </c>
       <c r="AD53" s="3">
@@ -5260,7 +5242,7 @@
       <c r="H54" s="2"/>
       <c r="I54" s="11"/>
       <c r="J54" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="17"/>
         <v>280</v>
       </c>
       <c r="K54" s="12"/>
@@ -5280,11 +5262,11 @@
       <c r="Z54" s="3"/>
       <c r="AA54" s="3"/>
       <c r="AB54" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>280</v>
       </c>
       <c r="AC54" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>84</v>
       </c>
       <c r="AD54" s="3">
@@ -5315,7 +5297,7 @@
       <c r="H55" s="2"/>
       <c r="I55" s="11"/>
       <c r="J55" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="17"/>
         <v>280</v>
       </c>
       <c r="K55" s="12"/>
@@ -5335,11 +5317,11 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>280</v>
       </c>
       <c r="AC55" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>84</v>
       </c>
       <c r="AD55" s="3">
@@ -5370,7 +5352,7 @@
       <c r="H56" s="2"/>
       <c r="I56" s="11"/>
       <c r="J56" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="17"/>
         <v>280</v>
       </c>
       <c r="K56" s="12"/>
@@ -5390,11 +5372,11 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>280</v>
       </c>
       <c r="AC56" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>84</v>
       </c>
       <c r="AD56" s="3">
@@ -5425,7 +5407,7 @@
       <c r="H57" s="2"/>
       <c r="I57" s="11"/>
       <c r="J57" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="17"/>
         <v>280</v>
       </c>
       <c r="K57" s="12"/>
@@ -5445,11 +5427,11 @@
       <c r="Z57" s="3"/>
       <c r="AA57" s="3"/>
       <c r="AB57" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>280</v>
       </c>
       <c r="AC57" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>84</v>
       </c>
       <c r="AD57" s="3">
@@ -5480,7 +5462,7 @@
       <c r="H58" s="2"/>
       <c r="I58" s="11"/>
       <c r="J58" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="17"/>
         <v>280</v>
       </c>
       <c r="K58" s="12"/>
@@ -5500,11 +5482,11 @@
       <c r="Z58" s="3"/>
       <c r="AA58" s="3"/>
       <c r="AB58" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>280</v>
       </c>
       <c r="AC58" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>84</v>
       </c>
       <c r="AD58" s="3">
@@ -5535,7 +5517,7 @@
       <c r="H59" s="2"/>
       <c r="I59" s="11"/>
       <c r="J59" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="17"/>
         <v>280</v>
       </c>
       <c r="K59" s="12"/>
@@ -5555,11 +5537,11 @@
       <c r="Z59" s="3"/>
       <c r="AA59" s="3"/>
       <c r="AB59" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>280</v>
       </c>
       <c r="AC59" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>84</v>
       </c>
       <c r="AD59" s="3">
@@ -5626,7 +5608,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R2 U2">
+  <conditionalFormatting sqref="U2 R2">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -5686,7 +5668,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R2 U2 X2 AA2">
+  <conditionalFormatting sqref="U2 R2 X2 AA2">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
